--- a/isotopologues.xlsx
+++ b/isotopologues.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5294" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5294" uniqueCount="846">
   <si>
     <t>phenotype</t>
   </si>
@@ -1385,363 +1385,366 @@
     <t>99.7 ± 0.6</t>
   </si>
   <si>
-    <t>80.3 ± 1.9</t>
-  </si>
-  <si>
-    <t>80.3 ± 3</t>
-  </si>
-  <si>
-    <t>81 ± 2</t>
-  </si>
-  <si>
-    <t>79.6 ± 3.4</t>
-  </si>
-  <si>
-    <t>81.5 ± 1.2</t>
-  </si>
-  <si>
-    <t>82.6 ± 5.2</t>
-  </si>
-  <si>
-    <t>80.7 ± 5.2</t>
-  </si>
-  <si>
-    <t>79.8 ± 5.3</t>
+    <t>81.4 ± 1.8</t>
+  </si>
+  <si>
+    <t>81.4 ± 2.9</t>
+  </si>
+  <si>
+    <t>82 ± 1.9</t>
+  </si>
+  <si>
+    <t>80.8 ± 3.2</t>
+  </si>
+  <si>
+    <t>82.5 ± 1.1</t>
+  </si>
+  <si>
+    <t>83.6 ± 4.9</t>
+  </si>
+  <si>
+    <t>81.8 ± 4.9</t>
+  </si>
+  <si>
+    <t>81 ± 5</t>
+  </si>
+  <si>
+    <t>99.7 ± 0.2</t>
+  </si>
+  <si>
+    <t>99.4 ± 0.5</t>
+  </si>
+  <si>
+    <t>99.5 ± 0.4</t>
+  </si>
+  <si>
+    <t>99.3 ± 0.8</t>
+  </si>
+  <si>
+    <t>88.3 ± 0.7</t>
+  </si>
+  <si>
+    <t>86.5 ± 3.1</t>
+  </si>
+  <si>
+    <t>89.2 ± 3.1</t>
+  </si>
+  <si>
+    <t>87.9 ± 3.3</t>
+  </si>
+  <si>
+    <t>88.3 ± 0.6</t>
+  </si>
+  <si>
+    <t>90.5 ± 1.3</t>
+  </si>
+  <si>
+    <t>88.4 ± 2.4</t>
+  </si>
+  <si>
+    <t>89.4 ± 2.5</t>
+  </si>
+  <si>
+    <t>99.9 ± 0.4</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.8</t>
+  </si>
+  <si>
+    <t>88.9 ± 1.7</t>
+  </si>
+  <si>
+    <t>90.1 ± 1.7</t>
+  </si>
+  <si>
+    <t>89.7 ± 2.6</t>
+  </si>
+  <si>
+    <t>88.5 ± 2.5</t>
+  </si>
+  <si>
+    <t>95.3 ± 0.7</t>
+  </si>
+  <si>
+    <t>96 ± 0.7</t>
+  </si>
+  <si>
+    <t>95.6 ± 0.9</t>
+  </si>
+  <si>
+    <t>94.6 ± 0.9</t>
+  </si>
+  <si>
+    <t>81.9 ± 1.7</t>
+  </si>
+  <si>
+    <t>86.6 ± 1.7</t>
+  </si>
+  <si>
+    <t>83.5 ± 2.6</t>
+  </si>
+  <si>
+    <t>83.5 ± 2.1</t>
+  </si>
+  <si>
+    <t>98.3 ± 0.4</t>
+  </si>
+  <si>
+    <t>98 ± 0.3</t>
+  </si>
+  <si>
+    <t>97.6 ± 0.7</t>
+  </si>
+  <si>
+    <t>96.9 ± 1.1</t>
+  </si>
+  <si>
+    <t>99 ± 0.2</t>
+  </si>
+  <si>
+    <t>99.1 ± 0.4</t>
+  </si>
+  <si>
+    <t>98.7 ± 0.8</t>
+  </si>
+  <si>
+    <t>97.9 ± 0.3</t>
+  </si>
+  <si>
+    <t>99.7 ± 1.2</t>
+  </si>
+  <si>
+    <t>99.7 ± 1.1</t>
+  </si>
+  <si>
+    <t>99.7 ± 0.7</t>
+  </si>
+  <si>
+    <t>95.5 ± 0.8</t>
+  </si>
+  <si>
+    <t>94.8 ± 0.8</t>
+  </si>
+  <si>
+    <t>94.1 ± 0.8</t>
+  </si>
+  <si>
+    <t>94.1 ± 0.7</t>
+  </si>
+  <si>
+    <t>96.8 ± 0.2</t>
+  </si>
+  <si>
+    <t>96.5 ± 0.7</t>
+  </si>
+  <si>
+    <t>95.4 ± 0.9</t>
+  </si>
+  <si>
+    <t>94.7 ± 0.7</t>
+  </si>
+  <si>
+    <t>99.9 ± 0</t>
+  </si>
+  <si>
+    <t>68.1 ± 2.8</t>
+  </si>
+  <si>
+    <t>76.7 ± 4.4</t>
+  </si>
+  <si>
+    <t>69.4 ± 6.9</t>
+  </si>
+  <si>
+    <t>70.8 ± 6.3</t>
+  </si>
+  <si>
+    <t>97.2 ± 0.5</t>
+  </si>
+  <si>
+    <t>97 ± 0.5</t>
+  </si>
+  <si>
+    <t>95.7 ± 0.6</t>
+  </si>
+  <si>
+    <t>96.3 ± 0.8</t>
+  </si>
+  <si>
+    <t>99.6 ± 0.2</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.6</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.3</t>
+  </si>
+  <si>
+    <t>96 ± 0.5</t>
+  </si>
+  <si>
+    <t>97 ± 0.6</t>
+  </si>
+  <si>
+    <t>96.4 ± 0.7</t>
+  </si>
+  <si>
+    <t>96.3 ± 0.2</t>
+  </si>
+  <si>
+    <t>98.4 ± 0.3</t>
+  </si>
+  <si>
+    <t>98.5 ± 0.3</t>
+  </si>
+  <si>
+    <t>97.7 ± 0.6</t>
+  </si>
+  <si>
+    <t>97.3 ± 0.5</t>
+  </si>
+  <si>
+    <t>98.4 ± 0.9</t>
+  </si>
+  <si>
+    <t>97.8 ± 0.8</t>
+  </si>
+  <si>
+    <t>97.5 ± 0.7</t>
+  </si>
+  <si>
+    <t>76.8 ± 1.9</t>
+  </si>
+  <si>
+    <t>81.7 ± 1.9</t>
+  </si>
+  <si>
+    <t>73.7 ± 5.6</t>
+  </si>
+  <si>
+    <t>75.6 ± 3.4</t>
   </si>
   <si>
     <t>99.7 ± 0.3</t>
   </si>
   <si>
-    <t>99.3 ± 0.5</t>
+    <t>99.7 ± 0.1</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.1</t>
+  </si>
+  <si>
+    <t>99.9 ± 0.3</t>
+  </si>
+  <si>
+    <t>99.7 ± 0.9</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.5</t>
+  </si>
+  <si>
+    <t>97.8 ± 0.6</t>
+  </si>
+  <si>
+    <t>98.4 ± 0.7</t>
+  </si>
+  <si>
+    <t>98.4 ± 0.5</t>
+  </si>
+  <si>
+    <t>99.4 ± 0.4</t>
+  </si>
+  <si>
+    <t>98.5 ± 0.2</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.4</t>
+  </si>
+  <si>
+    <t>98.6 ± 0.8</t>
+  </si>
+  <si>
+    <t>98.9 ± 0.9</t>
+  </si>
+  <si>
+    <t>80.5 ± 4.8</t>
+  </si>
+  <si>
+    <t>82.8 ± 6.2</t>
+  </si>
+  <si>
+    <t>72.4 ± 10</t>
+  </si>
+  <si>
+    <t>77.9 ± 7.2</t>
+  </si>
+  <si>
+    <t>99.3 ± 0.9</t>
+  </si>
+  <si>
+    <t>99.4 ± 0.8</t>
+  </si>
+  <si>
+    <t>99.3 ± 1</t>
+  </si>
+  <si>
+    <t>98 ± 0.1</t>
+  </si>
+  <si>
+    <t>99 ± 0.5</t>
+  </si>
+  <si>
+    <t>98.2 ± 0.6</t>
+  </si>
+  <si>
+    <t>98.1 ± 0.2</t>
+  </si>
+  <si>
+    <t>99 ± 0</t>
+  </si>
+  <si>
+    <t>99.3 ± 0.1</t>
+  </si>
+  <si>
+    <t>98.8 ± 0.3</t>
+  </si>
+  <si>
+    <t>98.9 ± 0.2</t>
+  </si>
+  <si>
+    <t>98.8 ± 0</t>
+  </si>
+  <si>
+    <t>99 ± 0.1</t>
+  </si>
+  <si>
+    <t>98.6 ± 0.5</t>
+  </si>
+  <si>
+    <t>99.8 ± 0.7</t>
+  </si>
+  <si>
+    <t>99.6 ± 0.4</t>
+  </si>
+  <si>
+    <t>99.2 ± 0.4</t>
+  </si>
+  <si>
+    <t>99.1 ± 0.1</t>
+  </si>
+  <si>
+    <t>99.5 ± 0.3</t>
+  </si>
+  <si>
+    <t>99.5 ± 0.2</t>
+  </si>
+  <si>
+    <t>99.3 ± 0</t>
   </si>
   <si>
     <t>99.5 ± 0.5</t>
   </si>
   <si>
-    <t>99.3 ± 0.8</t>
-  </si>
-  <si>
-    <t>87.5 ± 0.7</t>
-  </si>
-  <si>
-    <t>85.7 ± 3.3</t>
-  </si>
-  <si>
-    <t>88.6 ± 3.3</t>
-  </si>
-  <si>
-    <t>87.1 ± 3.5</t>
-  </si>
-  <si>
-    <t>87.6 ± 0.7</t>
-  </si>
-  <si>
-    <t>89.9 ± 1.4</t>
-  </si>
-  <si>
-    <t>87.7 ± 2.5</t>
-  </si>
-  <si>
-    <t>88.8 ± 2.7</t>
-  </si>
-  <si>
-    <t>99.9 ± 0.4</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.8</t>
-  </si>
-  <si>
-    <t>88.9 ± 1.7</t>
-  </si>
-  <si>
-    <t>90.1 ± 1.7</t>
-  </si>
-  <si>
-    <t>89.7 ± 2.6</t>
-  </si>
-  <si>
-    <t>88.5 ± 2.5</t>
-  </si>
-  <si>
-    <t>95.3 ± 0.7</t>
-  </si>
-  <si>
-    <t>96 ± 0.7</t>
-  </si>
-  <si>
-    <t>95.6 ± 0.9</t>
-  </si>
-  <si>
-    <t>94.6 ± 0.9</t>
-  </si>
-  <si>
-    <t>81.9 ± 1.7</t>
-  </si>
-  <si>
-    <t>86.6 ± 1.7</t>
-  </si>
-  <si>
-    <t>83.5 ± 2.6</t>
-  </si>
-  <si>
-    <t>83.5 ± 2.1</t>
-  </si>
-  <si>
-    <t>98.3 ± 0.4</t>
-  </si>
-  <si>
-    <t>98 ± 0.3</t>
-  </si>
-  <si>
-    <t>97.6 ± 0.7</t>
-  </si>
-  <si>
-    <t>96.9 ± 1.1</t>
-  </si>
-  <si>
-    <t>99 ± 0.2</t>
-  </si>
-  <si>
-    <t>99.1 ± 0.4</t>
-  </si>
-  <si>
-    <t>98.7 ± 0.8</t>
-  </si>
-  <si>
-    <t>97.9 ± 0.3</t>
-  </si>
-  <si>
-    <t>99.7 ± 1.2</t>
-  </si>
-  <si>
-    <t>99.7 ± 1.1</t>
-  </si>
-  <si>
-    <t>99.7 ± 0.7</t>
-  </si>
-  <si>
-    <t>95.5 ± 0.8</t>
-  </si>
-  <si>
-    <t>94.8 ± 0.8</t>
-  </si>
-  <si>
-    <t>94.1 ± 0.8</t>
-  </si>
-  <si>
-    <t>94.1 ± 0.7</t>
-  </si>
-  <si>
-    <t>96.8 ± 0.2</t>
-  </si>
-  <si>
-    <t>96.5 ± 0.7</t>
-  </si>
-  <si>
-    <t>95.4 ± 0.9</t>
-  </si>
-  <si>
-    <t>94.7 ± 0.7</t>
-  </si>
-  <si>
-    <t>99.9 ± 0</t>
-  </si>
-  <si>
-    <t>68.1 ± 2.8</t>
-  </si>
-  <si>
-    <t>76.7 ± 4.4</t>
-  </si>
-  <si>
-    <t>69.4 ± 6.9</t>
-  </si>
-  <si>
-    <t>70.8 ± 6.3</t>
-  </si>
-  <si>
-    <t>97.2 ± 0.5</t>
-  </si>
-  <si>
-    <t>97 ± 0.5</t>
-  </si>
-  <si>
-    <t>95.7 ± 0.6</t>
-  </si>
-  <si>
-    <t>96.3 ± 0.8</t>
-  </si>
-  <si>
-    <t>99.6 ± 0.2</t>
-  </si>
-  <si>
-    <t>99.7 ± 0.2</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.6</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.3</t>
-  </si>
-  <si>
-    <t>96 ± 0.5</t>
-  </si>
-  <si>
-    <t>97 ± 0.6</t>
-  </si>
-  <si>
-    <t>96.4 ± 0.7</t>
-  </si>
-  <si>
-    <t>96.3 ± 0.2</t>
-  </si>
-  <si>
-    <t>98.4 ± 0.3</t>
-  </si>
-  <si>
-    <t>98.5 ± 0.3</t>
-  </si>
-  <si>
-    <t>97.7 ± 0.6</t>
-  </si>
-  <si>
-    <t>97.3 ± 0.5</t>
-  </si>
-  <si>
-    <t>98.4 ± 0.9</t>
-  </si>
-  <si>
-    <t>97.8 ± 0.8</t>
-  </si>
-  <si>
-    <t>97.5 ± 0.7</t>
-  </si>
-  <si>
-    <t>76.8 ± 1.9</t>
-  </si>
-  <si>
-    <t>81.7 ± 1.9</t>
-  </si>
-  <si>
-    <t>73.7 ± 5.6</t>
-  </si>
-  <si>
-    <t>75.6 ± 3.4</t>
-  </si>
-  <si>
-    <t>99.7 ± 0.1</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.1</t>
-  </si>
-  <si>
-    <t>99.9 ± 0.3</t>
-  </si>
-  <si>
-    <t>99.7 ± 0.9</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.5</t>
-  </si>
-  <si>
-    <t>97.8 ± 0.6</t>
-  </si>
-  <si>
-    <t>98.4 ± 0.7</t>
-  </si>
-  <si>
-    <t>98.4 ± 0.5</t>
-  </si>
-  <si>
-    <t>99.4 ± 0.4</t>
-  </si>
-  <si>
-    <t>98.5 ± 0.2</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.4</t>
-  </si>
-  <si>
-    <t>98.6 ± 0.8</t>
-  </si>
-  <si>
-    <t>98.9 ± 0.9</t>
-  </si>
-  <si>
-    <t>80.5 ± 4.8</t>
-  </si>
-  <si>
-    <t>82.8 ± 6.2</t>
-  </si>
-  <si>
-    <t>72.4 ± 10</t>
-  </si>
-  <si>
-    <t>77.9 ± 7.2</t>
-  </si>
-  <si>
-    <t>99.3 ± 0.9</t>
-  </si>
-  <si>
-    <t>99.4 ± 0.8</t>
-  </si>
-  <si>
-    <t>99.3 ± 1</t>
-  </si>
-  <si>
-    <t>98 ± 0.1</t>
-  </si>
-  <si>
-    <t>99 ± 0.5</t>
-  </si>
-  <si>
-    <t>98.2 ± 0.6</t>
-  </si>
-  <si>
-    <t>98.1 ± 0.2</t>
-  </si>
-  <si>
-    <t>99 ± 0</t>
-  </si>
-  <si>
-    <t>99.3 ± 0.1</t>
-  </si>
-  <si>
-    <t>98.8 ± 0.3</t>
-  </si>
-  <si>
-    <t>98.9 ± 0.2</t>
-  </si>
-  <si>
-    <t>98.8 ± 0</t>
-  </si>
-  <si>
-    <t>99 ± 0.1</t>
-  </si>
-  <si>
-    <t>98.6 ± 0.5</t>
-  </si>
-  <si>
-    <t>99.8 ± 0.7</t>
-  </si>
-  <si>
-    <t>99.6 ± 0.4</t>
-  </si>
-  <si>
-    <t>99.2 ± 0.4</t>
-  </si>
-  <si>
-    <t>99.1 ± 0.1</t>
-  </si>
-  <si>
-    <t>99.5 ± 0.3</t>
-  </si>
-  <si>
-    <t>99.5 ± 0.2</t>
-  </si>
-  <si>
-    <t>99.3 ± 0</t>
-  </si>
-  <si>
     <t>99.3 ± 0.3</t>
   </si>
   <si>
@@ -1790,9 +1793,6 @@
     <t>90.9 ± 1.7</t>
   </si>
   <si>
-    <t>99.4 ± 0.5</t>
-  </si>
-  <si>
     <t>99.5 ± 0.6</t>
   </si>
   <si>
@@ -1901,58 +1901,52 @@
     <t>0.3 ± 0.6</t>
   </si>
   <si>
-    <t>9.2 ± 0.7</t>
-  </si>
-  <si>
-    <t>7.9 ± 1</t>
-  </si>
-  <si>
-    <t>8.7 ± 1</t>
-  </si>
-  <si>
-    <t>8.8 ± 1.4</t>
-  </si>
-  <si>
-    <t>3.9 ± 0.2</t>
-  </si>
-  <si>
-    <t>3.2 ± 0.4</t>
-  </si>
-  <si>
-    <t>4.7 ± 0.9</t>
-  </si>
-  <si>
-    <t>4.8 ± 0.8</t>
+    <t>8.6 ± 0.7</t>
+  </si>
+  <si>
+    <t>7.5 ± 0.9</t>
+  </si>
+  <si>
+    <t>8.2 ± 0.9</t>
+  </si>
+  <si>
+    <t>8.3 ± 1.4</t>
+  </si>
+  <si>
+    <t>3.7 ± 0.2</t>
+  </si>
+  <si>
+    <t>3 ± 0.4</t>
+  </si>
+  <si>
+    <t>4.5 ± 0.8</t>
   </si>
   <si>
     <t>0.2 ± 0.3</t>
   </si>
   <si>
-    <t>0.4 ± 0.5</t>
-  </si>
-  <si>
-    <t>2.4 ± 0.9</t>
-  </si>
-  <si>
-    <t>1.4 ± 1</t>
-  </si>
-  <si>
-    <t>2.5 ± 1.4</t>
-  </si>
-  <si>
-    <t>3 ± 1.5</t>
-  </si>
-  <si>
-    <t>5.7 ± 0.5</t>
-  </si>
-  <si>
-    <t>4.1 ± 1</t>
-  </si>
-  <si>
-    <t>6 ± 1.5</t>
-  </si>
-  <si>
-    <t>5.2 ± 1.4</t>
+    <t>2.3 ± 0.8</t>
+  </si>
+  <si>
+    <t>1.3 ± 1</t>
+  </si>
+  <si>
+    <t>2.4 ± 1.3</t>
+  </si>
+  <si>
+    <t>2.8 ± 1.4</t>
+  </si>
+  <si>
+    <t>5.3 ± 0.5</t>
+  </si>
+  <si>
+    <t>3.9 ± 0.9</t>
+  </si>
+  <si>
+    <t>5.7 ± 1.4</t>
+  </si>
+  <si>
+    <t>4.9 ± 1.3</t>
   </si>
   <si>
     <t>0.2 ± 0.8</t>
@@ -2237,111 +2231,114 @@
     <t>2.8 ± 1</t>
   </si>
   <si>
-    <t>5.9 ± 0.6</t>
-  </si>
-  <si>
-    <t>6.7 ± 1.3</t>
-  </si>
-  <si>
-    <t>6.3 ± 1</t>
-  </si>
-  <si>
-    <t>6.9 ± 1.2</t>
-  </si>
-  <si>
-    <t>2.1 ± 0.3</t>
-  </si>
-  <si>
-    <t>3.1 ± 0.6</t>
+    <t>5.5 ± 0.5</t>
+  </si>
+  <si>
+    <t>6.3 ± 1.2</t>
+  </si>
+  <si>
+    <t>5.9 ± 0.9</t>
+  </si>
+  <si>
+    <t>6.5 ± 1.2</t>
+  </si>
+  <si>
+    <t>2 ± 0.2</t>
+  </si>
+  <si>
+    <t>2.2 ± 0.5</t>
+  </si>
+  <si>
+    <t>2.9 ± 0.6</t>
+  </si>
+  <si>
+    <t>3.2 ± 0.6</t>
+  </si>
+  <si>
+    <t>1 ± 0.2</t>
+  </si>
+  <si>
+    <t>1 ± 0.6</t>
+  </si>
+  <si>
+    <t>1.5 ± 0.9</t>
+  </si>
+  <si>
+    <t>1.6 ± 0.6</t>
+  </si>
+  <si>
+    <t>5.1 ± 0.3</t>
+  </si>
+  <si>
+    <t>4.6 ± 0.6</t>
+  </si>
+  <si>
+    <t>4.8 ± 0.9</t>
+  </si>
+  <si>
+    <t>4.6 ± 1.1</t>
+  </si>
+  <si>
+    <t>0.4 ± 0.3</t>
+  </si>
+  <si>
+    <t>0.3 ± 0</t>
+  </si>
+  <si>
+    <t>0.8 ± 0.4</t>
+  </si>
+  <si>
+    <t>1.4 ± 0.2</t>
+  </si>
+  <si>
+    <t>1.4 ± 0.6</t>
+  </si>
+  <si>
+    <t>1.2 ± 0.7</t>
+  </si>
+  <si>
+    <t>0.5 ± 0.1</t>
+  </si>
+  <si>
+    <t>0.5 ± 0.4</t>
+  </si>
+  <si>
+    <t>2.4 ± 0.1</t>
+  </si>
+  <si>
+    <t>2.8 ± 0.4</t>
+  </si>
+  <si>
+    <t>3 ± 0.6</t>
+  </si>
+  <si>
+    <t>6.4 ± 1.2</t>
   </si>
   <si>
     <t>3.4 ± 0.7</t>
   </si>
   <si>
-    <t>1 ± 0.3</t>
-  </si>
-  <si>
-    <t>1 ± 0.6</t>
-  </si>
-  <si>
-    <t>1.6 ± 0.9</t>
-  </si>
-  <si>
-    <t>1.7 ± 0.7</t>
+    <t>4.3 ± 0.8</t>
+  </si>
+  <si>
+    <t>3.9 ± 1</t>
+  </si>
+  <si>
+    <t>14.8 ± 1.7</t>
+  </si>
+  <si>
+    <t>11.3 ± 1.9</t>
+  </si>
+  <si>
+    <t>9.4 ± 1.2</t>
+  </si>
+  <si>
+    <t>10.1 ± 1.8</t>
   </si>
   <si>
     <t>5.4 ± 0.3</t>
   </si>
   <si>
-    <t>4.8 ± 0.6</t>
-  </si>
-  <si>
-    <t>5.1 ± 0.9</t>
-  </si>
-  <si>
-    <t>4.8 ± 1.1</t>
-  </si>
-  <si>
-    <t>0.4 ± 0.3</t>
-  </si>
-  <si>
-    <t>0.3 ± 0</t>
-  </si>
-  <si>
-    <t>0.8 ± 0.4</t>
-  </si>
-  <si>
-    <t>1.4 ± 0.2</t>
-  </si>
-  <si>
-    <t>1.4 ± 0.6</t>
-  </si>
-  <si>
-    <t>1.2 ± 0.7</t>
-  </si>
-  <si>
-    <t>1 ± 0.2</t>
-  </si>
-  <si>
-    <t>0.5 ± 0.1</t>
-  </si>
-  <si>
-    <t>0.5 ± 0.4</t>
-  </si>
-  <si>
-    <t>2.4 ± 0.1</t>
-  </si>
-  <si>
-    <t>3.2 ± 0.6</t>
-  </si>
-  <si>
-    <t>2.8 ± 0.4</t>
-  </si>
-  <si>
-    <t>3 ± 0.6</t>
-  </si>
-  <si>
-    <t>6.4 ± 1.2</t>
-  </si>
-  <si>
-    <t>4.3 ± 0.8</t>
-  </si>
-  <si>
-    <t>3.9 ± 1</t>
-  </si>
-  <si>
-    <t>14.8 ± 1.7</t>
-  </si>
-  <si>
-    <t>11.3 ± 1.9</t>
-  </si>
-  <si>
-    <t>9.4 ± 1.2</t>
-  </si>
-  <si>
-    <t>10.1 ± 1.8</t>
-  </si>
-  <si>
     <t>1.2 ± 0.8</t>
   </si>
   <si>
@@ -2366,43 +2363,37 @@
     <t>0.8 ± 0.1</t>
   </si>
   <si>
-    <t>4.3 ± 0.6</t>
-  </si>
-  <si>
-    <t>4.5 ± 0.9</t>
-  </si>
-  <si>
-    <t>3.6 ± 0.4</t>
-  </si>
-  <si>
-    <t>4.1 ± 0.9</t>
-  </si>
-  <si>
-    <t>12.5 ± 1</t>
-  </si>
-  <si>
-    <t>11.9 ± 4.8</t>
-  </si>
-  <si>
-    <t>11.4 ± 4.8</t>
-  </si>
-  <si>
-    <t>11.9 ± 4.6</t>
-  </si>
-  <si>
-    <t>9 ± 0.3</t>
-  </si>
-  <si>
-    <t>11.9 ± 2.6</t>
-  </si>
-  <si>
-    <t>7.3 ± 2.2</t>
-  </si>
-  <si>
-    <t>8.2 ± 2.3</t>
-  </si>
-  <si>
-    <t>1.3 ± 0.1</t>
+    <t>4 ± 0.6</t>
+  </si>
+  <si>
+    <t>3.4 ± 0.4</t>
+  </si>
+  <si>
+    <t>3.9 ± 0.8</t>
+  </si>
+  <si>
+    <t>11.8 ± 0.9</t>
+  </si>
+  <si>
+    <t>11.2 ± 4.6</t>
+  </si>
+  <si>
+    <t>10.8 ± 4.6</t>
+  </si>
+  <si>
+    <t>11.3 ± 4.3</t>
+  </si>
+  <si>
+    <t>8.5 ± 0.3</t>
+  </si>
+  <si>
+    <t>11.2 ± 2.5</t>
+  </si>
+  <si>
+    <t>6.9 ± 2.1</t>
+  </si>
+  <si>
+    <t>7.7 ± 2.2</t>
   </si>
   <si>
     <t>1.1 ± 0.3</t>
@@ -2439,9 +2430,6 @@
   </si>
   <si>
     <t>16.5 ± 2.1</t>
-  </si>
-  <si>
-    <t>2 ± 0.2</t>
   </si>
   <si>
     <t>2 ± 0.4</t>
@@ -2701,19 +2689,19 @@
         <v>607</v>
       </c>
       <c r="G2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="I2" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="J2" t="s">
         <v>625</v>
       </c>
       <c r="K2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -2748,19 +2736,19 @@
         <v>608</v>
       </c>
       <c r="G3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H3" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="I3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -2795,19 +2783,19 @@
         <v>609</v>
       </c>
       <c r="G4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -2842,19 +2830,19 @@
         <v>610</v>
       </c>
       <c r="G5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J5" t="s">
         <v>625</v>
       </c>
       <c r="K5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -2889,10 +2877,10 @@
         <v>611</v>
       </c>
       <c r="G6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -2930,10 +2918,10 @@
         <v>612</v>
       </c>
       <c r="G7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2971,10 +2959,10 @@
         <v>613</v>
       </c>
       <c r="G8" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H8" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -3012,10 +3000,10 @@
         <v>614</v>
       </c>
       <c r="G9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -3056,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -3097,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -3138,7 +3126,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -3179,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -3217,10 +3205,10 @@
         <v>617</v>
       </c>
       <c r="G14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -3258,10 +3246,10 @@
         <v>618</v>
       </c>
       <c r="G15" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -3299,10 +3287,10 @@
         <v>619</v>
       </c>
       <c r="G16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -3340,10 +3328,10 @@
         <v>620</v>
       </c>
       <c r="G17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H17" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -3381,10 +3369,10 @@
         <v>621</v>
       </c>
       <c r="G18" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I18" t="s">
         <v>3</v>
@@ -3426,10 +3414,10 @@
         <v>622</v>
       </c>
       <c r="G19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H19" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I19" t="s">
         <v>3</v>
@@ -3471,10 +3459,10 @@
         <v>623</v>
       </c>
       <c r="G20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H20" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I20" t="s">
         <v>3</v>
@@ -3516,10 +3504,10 @@
         <v>624</v>
       </c>
       <c r="G21" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
@@ -4647,16 +4635,16 @@
         <v>629</v>
       </c>
       <c r="G42" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K42" t="s">
         <v>3</v>
@@ -4694,16 +4682,16 @@
         <v>630</v>
       </c>
       <c r="G43" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H43" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="I43" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="J43" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K43" t="s">
         <v>3</v>
@@ -4741,16 +4729,16 @@
         <v>631</v>
       </c>
       <c r="G44" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H44" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I44" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J44" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="K44" t="s">
         <v>3</v>
@@ -4788,16 +4776,16 @@
         <v>632</v>
       </c>
       <c r="G45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H45" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I45" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="J45" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="K45" t="s">
         <v>3</v>
@@ -4835,10 +4823,10 @@
         <v>633</v>
       </c>
       <c r="G46" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H46" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
@@ -4876,10 +4864,10 @@
         <v>634</v>
       </c>
       <c r="G47" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="H47" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
@@ -4917,10 +4905,10 @@
         <v>635</v>
       </c>
       <c r="G48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H48" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -4955,13 +4943,13 @@
         <v>464</v>
       </c>
       <c r="F49" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H49" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -5002,7 +4990,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
@@ -5037,13 +5025,13 @@
         <v>466</v>
       </c>
       <c r="F51" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G51" t="s">
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
@@ -5078,13 +5066,13 @@
         <v>467</v>
       </c>
       <c r="F52" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G52" t="s">
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
@@ -5119,13 +5107,13 @@
         <v>468</v>
       </c>
       <c r="F53" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G53" t="s">
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
@@ -5160,13 +5148,13 @@
         <v>469</v>
       </c>
       <c r="F54" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G54" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H54" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -5201,13 +5189,13 @@
         <v>470</v>
       </c>
       <c r="F55" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G55" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H55" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I55"/>
       <c r="J55"/>
@@ -5242,13 +5230,13 @@
         <v>471</v>
       </c>
       <c r="F56" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G56" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H56" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I56"/>
       <c r="J56"/>
@@ -5283,13 +5271,13 @@
         <v>472</v>
       </c>
       <c r="F57" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G57" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H57" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
@@ -5324,13 +5312,13 @@
         <v>473</v>
       </c>
       <c r="F58" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H58" t="s">
-        <v>796</v>
+        <v>666</v>
       </c>
       <c r="I58" t="s">
         <v>3</v>
@@ -5369,13 +5357,13 @@
         <v>474</v>
       </c>
       <c r="F59" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G59" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H59" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="I59" t="s">
         <v>3</v>
@@ -5414,13 +5402,13 @@
         <v>475</v>
       </c>
       <c r="F60" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G60" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H60" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I60" t="s">
         <v>3</v>
@@ -5459,13 +5447,13 @@
         <v>476</v>
       </c>
       <c r="F61" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G61" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H61" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="I61" t="s">
         <v>3</v>
@@ -6015,7 +6003,7 @@
         <v>478</v>
       </c>
       <c r="F71" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G71" t="s">
         <v>3</v>
@@ -6692,13 +6680,13 @@
         <v>479</v>
       </c>
       <c r="F82" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G82" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H82" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I82" t="s">
         <v>3</v>
@@ -6707,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="K82" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -6739,13 +6727,13 @@
         <v>480</v>
       </c>
       <c r="F83" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G83" t="s">
         <v>616</v>
       </c>
       <c r="H83" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="I83" t="s">
         <v>3</v>
@@ -6754,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="K83" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -6786,13 +6774,13 @@
         <v>481</v>
       </c>
       <c r="F84" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G84" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H84" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="I84" t="s">
         <v>3</v>
@@ -6801,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="K84" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -6833,13 +6821,13 @@
         <v>482</v>
       </c>
       <c r="F85" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G85" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H85" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I85" t="s">
         <v>625</v>
@@ -6848,7 +6836,7 @@
         <v>3</v>
       </c>
       <c r="K85" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -6880,13 +6868,13 @@
         <v>483</v>
       </c>
       <c r="F86" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G86" t="s">
         <v>625</v>
       </c>
       <c r="H86" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="I86"/>
       <c r="J86"/>
@@ -6921,13 +6909,13 @@
         <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G87" t="s">
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="I87"/>
       <c r="J87"/>
@@ -6962,13 +6950,13 @@
         <v>485</v>
       </c>
       <c r="F88" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G88" t="s">
         <v>616</v>
       </c>
       <c r="H88" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="I88"/>
       <c r="J88"/>
@@ -7003,13 +6991,13 @@
         <v>486</v>
       </c>
       <c r="F89" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G89" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H89" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I89"/>
       <c r="J89"/>
@@ -7050,7 +7038,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="I90"/>
       <c r="J90"/>
@@ -7091,7 +7079,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I91"/>
       <c r="J91"/>
@@ -7132,7 +7120,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I92"/>
       <c r="J92"/>
@@ -7173,7 +7161,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="I93"/>
       <c r="J93"/>
@@ -7214,7 +7202,7 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I94"/>
       <c r="J94"/>
@@ -7255,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>809</v>
+        <v>743</v>
       </c>
       <c r="I95"/>
       <c r="J95"/>
@@ -7290,13 +7278,13 @@
         <v>493</v>
       </c>
       <c r="F96" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G96" t="s">
         <v>615</v>
       </c>
       <c r="H96" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I96"/>
       <c r="J96"/>
@@ -7331,13 +7319,13 @@
         <v>494</v>
       </c>
       <c r="F97" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G97" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H97" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I97"/>
       <c r="J97"/>
@@ -7372,13 +7360,13 @@
         <v>495</v>
       </c>
       <c r="F98" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G98" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H98" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I98" t="s">
         <v>3</v>
@@ -7417,13 +7405,13 @@
         <v>496</v>
       </c>
       <c r="F99" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G99" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H99" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I99" t="s">
         <v>3</v>
@@ -7462,13 +7450,13 @@
         <v>497</v>
       </c>
       <c r="F100" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G100" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H100" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I100" t="s">
         <v>3</v>
@@ -7507,13 +7495,13 @@
         <v>498</v>
       </c>
       <c r="F101" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G101" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H101" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I101" t="s">
         <v>3</v>
@@ -7858,7 +7846,7 @@
         <v>499</v>
       </c>
       <c r="F108" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
@@ -8205,7 +8193,7 @@
         <v>500</v>
       </c>
       <c r="F113" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G113" t="s">
         <v>3</v>
@@ -8276,7 +8264,7 @@
         <v>501</v>
       </c>
       <c r="F114" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G114" t="s">
         <v>3</v>
@@ -8743,10 +8731,10 @@
         <v>611</v>
       </c>
       <c r="G122" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H122" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I122" t="s">
         <v>3</v>
@@ -8787,13 +8775,13 @@
         <v>503</v>
       </c>
       <c r="F123" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G123" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H123" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I123" t="s">
         <v>3</v>
@@ -8834,13 +8822,13 @@
         <v>504</v>
       </c>
       <c r="F124" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G124" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H124" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I124" t="s">
         <v>3</v>
@@ -8881,13 +8869,13 @@
         <v>505</v>
       </c>
       <c r="F125" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G125" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H125" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I125" t="s">
         <v>3</v>
@@ -8928,13 +8916,13 @@
         <v>506</v>
       </c>
       <c r="F126" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G126" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H126" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="I126"/>
       <c r="J126"/>
@@ -8969,13 +8957,13 @@
         <v>507</v>
       </c>
       <c r="F127" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G127" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H127" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I127"/>
       <c r="J127"/>
@@ -9010,13 +8998,13 @@
         <v>508</v>
       </c>
       <c r="F128" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G128" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="H128" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I128"/>
       <c r="J128"/>
@@ -9051,13 +9039,13 @@
         <v>509</v>
       </c>
       <c r="F129" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G129" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H129" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I129"/>
       <c r="J129"/>
@@ -9139,7 +9127,7 @@
         <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I131"/>
       <c r="J131"/>
@@ -9262,7 +9250,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="I134"/>
       <c r="J134"/>
@@ -9297,13 +9285,13 @@
         <v>512</v>
       </c>
       <c r="F135" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G135" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H135" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="I135"/>
       <c r="J135"/>
@@ -9338,13 +9326,13 @@
         <v>513</v>
       </c>
       <c r="F136" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G136" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H136" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="I136"/>
       <c r="J136"/>
@@ -9379,13 +9367,13 @@
         <v>514</v>
       </c>
       <c r="F137" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G137" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H137" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="I137"/>
       <c r="J137"/>
@@ -9420,13 +9408,13 @@
         <v>515</v>
       </c>
       <c r="F138" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G138" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H138" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="I138" t="s">
         <v>3</v>
@@ -9465,13 +9453,13 @@
         <v>516</v>
       </c>
       <c r="F139" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G139" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H139" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I139" t="s">
         <v>3</v>
@@ -9510,13 +9498,13 @@
         <v>517</v>
       </c>
       <c r="F140" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G140" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H140" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I140" t="s">
         <v>3</v>
@@ -9555,13 +9543,13 @@
         <v>518</v>
       </c>
       <c r="F141" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G141" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H141" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I141" t="s">
         <v>3</v>
@@ -9686,7 +9674,7 @@
         <v>519</v>
       </c>
       <c r="F144" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G144" t="s">
         <v>3</v>
@@ -9726,10 +9714,10 @@
         <v>423</v>
       </c>
       <c r="E145" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="F145" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G145" t="s">
         <v>3</v>
@@ -9839,7 +9827,7 @@
         <v>477</v>
       </c>
       <c r="F147" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G147" t="s">
         <v>3</v>
@@ -10179,10 +10167,10 @@
         <v>426</v>
       </c>
       <c r="E152" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F152" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G152" t="s">
         <v>3</v>
@@ -10250,10 +10238,10 @@
         <v>426</v>
       </c>
       <c r="E153" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F153" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G153" t="s">
         <v>3</v>
@@ -10755,16 +10743,16 @@
         <v>418</v>
       </c>
       <c r="E162" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F162" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G162" t="s">
         <v>3</v>
       </c>
       <c r="H162" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I162" t="s">
         <v>3</v>
@@ -10802,16 +10790,16 @@
         <v>418</v>
       </c>
       <c r="E163" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F163" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G163" t="s">
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="I163" t="s">
         <v>3</v>
@@ -10849,16 +10837,16 @@
         <v>418</v>
       </c>
       <c r="E164" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F164" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G164" t="s">
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
       <c r="I164" t="s">
         <v>3</v>
@@ -10896,16 +10884,16 @@
         <v>418</v>
       </c>
       <c r="E165" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F165" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G165" t="s">
         <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I165" t="s">
         <v>3</v>
@@ -10943,16 +10931,16 @@
         <v>419</v>
       </c>
       <c r="E166" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F166" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G166" t="s">
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I166"/>
       <c r="J166"/>
@@ -10984,16 +10972,16 @@
         <v>419</v>
       </c>
       <c r="E167" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F167" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G167" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H167" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I167"/>
       <c r="J167"/>
@@ -11025,16 +11013,16 @@
         <v>419</v>
       </c>
       <c r="E168" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F168" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G168" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H168" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I168"/>
       <c r="J168"/>
@@ -11066,16 +11054,16 @@
         <v>419</v>
       </c>
       <c r="E169" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F169" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G169" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H169" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I169"/>
       <c r="J169"/>
@@ -11265,10 +11253,10 @@
         <v>421</v>
       </c>
       <c r="E174" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F174" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G174" t="s">
         <v>3</v>
@@ -11306,16 +11294,16 @@
         <v>421</v>
       </c>
       <c r="E175" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F175" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G175" t="s">
         <v>625</v>
       </c>
       <c r="H175" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="I175"/>
       <c r="J175"/>
@@ -11347,16 +11335,16 @@
         <v>421</v>
       </c>
       <c r="E176" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F176" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G176" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H176" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="I176"/>
       <c r="J176"/>
@@ -11388,16 +11376,16 @@
         <v>421</v>
       </c>
       <c r="E177" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F177" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G177" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H177" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I177"/>
       <c r="J177"/>
@@ -11429,22 +11417,22 @@
         <v>422</v>
       </c>
       <c r="E178" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F178" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G178" t="s">
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I178" t="s">
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="K178"/>
       <c r="L178"/>
@@ -11474,22 +11462,22 @@
         <v>422</v>
       </c>
       <c r="E179" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F179" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G179" t="s">
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I179" t="s">
         <v>3</v>
       </c>
       <c r="J179" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="K179"/>
       <c r="L179"/>
@@ -11519,22 +11507,22 @@
         <v>422</v>
       </c>
       <c r="E180" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F180" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G180" t="s">
         <v>625</v>
       </c>
       <c r="H180" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I180" t="s">
         <v>3</v>
       </c>
       <c r="J180" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="K180"/>
       <c r="L180"/>
@@ -11564,22 +11552,22 @@
         <v>422</v>
       </c>
       <c r="E181" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F181" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G181" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H181" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I181" t="s">
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="K181"/>
       <c r="L181"/>
@@ -11695,10 +11683,10 @@
         <v>423</v>
       </c>
       <c r="E184" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="F184" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G184" t="s">
         <v>3</v>
@@ -11741,7 +11729,7 @@
         <v>538</v>
       </c>
       <c r="F185" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G185" t="s">
         <v>3</v>
@@ -11982,10 +11970,10 @@
         <v>425</v>
       </c>
       <c r="E189" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F189" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G189" t="s">
         <v>625</v>
@@ -12123,7 +12111,7 @@
         <v>540</v>
       </c>
       <c r="F191" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G191" t="s">
         <v>3</v>
@@ -12265,7 +12253,7 @@
         <v>541</v>
       </c>
       <c r="F193" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G193" t="s">
         <v>3</v>
@@ -12549,7 +12537,7 @@
         <v>542</v>
       </c>
       <c r="F197" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G197" t="s">
         <v>3</v>
@@ -12770,7 +12758,7 @@
         <v>543</v>
       </c>
       <c r="F202" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G202" t="s">
         <v>3</v>
@@ -12817,7 +12805,7 @@
         <v>544</v>
       </c>
       <c r="F203" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G203" t="s">
         <v>3</v>
@@ -12861,10 +12849,10 @@
         <v>418</v>
       </c>
       <c r="E204" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F204" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G204" t="s">
         <v>3</v>
@@ -12911,7 +12899,7 @@
         <v>545</v>
       </c>
       <c r="F205" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G205" t="s">
         <v>3</v>
@@ -12958,7 +12946,7 @@
         <v>496</v>
       </c>
       <c r="F206" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G206" t="s">
         <v>625</v>
@@ -12999,7 +12987,7 @@
         <v>546</v>
       </c>
       <c r="F207" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G207" t="s">
         <v>3</v>
@@ -13040,7 +13028,7 @@
         <v>547</v>
       </c>
       <c r="F208" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G208" t="s">
         <v>3</v>
@@ -13081,7 +13069,7 @@
         <v>496</v>
       </c>
       <c r="F209" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G209" t="s">
         <v>3</v>
@@ -13286,7 +13274,7 @@
         <v>540</v>
       </c>
       <c r="F214" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G214" t="s">
         <v>3</v>
@@ -13450,10 +13438,10 @@
         <v>549</v>
       </c>
       <c r="F218" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G218" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H218" t="s">
         <v>3</v>
@@ -13495,10 +13483,10 @@
         <v>550</v>
       </c>
       <c r="F219" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G219" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H219" t="s">
         <v>3</v>
@@ -13540,10 +13528,10 @@
         <v>516</v>
       </c>
       <c r="F220" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G220" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H220" t="s">
         <v>3</v>
@@ -13585,10 +13573,10 @@
         <v>440</v>
       </c>
       <c r="F221" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G221" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H221" t="s">
         <v>3</v>
@@ -13630,16 +13618,16 @@
         <v>551</v>
       </c>
       <c r="F222" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G222" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H222" t="s">
         <v>3</v>
       </c>
       <c r="I222" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="J222"/>
       <c r="K222"/>
@@ -13682,7 +13670,7 @@
         <v>3</v>
       </c>
       <c r="I223" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="J223"/>
       <c r="K223"/>
@@ -13719,13 +13707,13 @@
         <v>3</v>
       </c>
       <c r="G224" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H224" t="s">
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="J224"/>
       <c r="K224"/>
@@ -13768,7 +13756,7 @@
         <v>3</v>
       </c>
       <c r="I225" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="J225"/>
       <c r="K225"/>
@@ -14357,13 +14345,13 @@
         <v>3</v>
       </c>
       <c r="G234" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H234" t="s">
         <v>3</v>
       </c>
       <c r="I234" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J234" t="s">
         <v>3</v>
@@ -14434,7 +14422,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="J235" t="s">
         <v>3</v>
@@ -14570,13 +14558,13 @@
         <v>3</v>
       </c>
       <c r="G237" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H237" t="s">
         <v>3</v>
       </c>
       <c r="I237" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="J237" t="s">
         <v>3</v>
@@ -14818,7 +14806,7 @@
         <v>558</v>
       </c>
       <c r="F242" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G242" t="s">
         <v>3</v>
@@ -14833,7 +14821,7 @@
         <v>3</v>
       </c>
       <c r="K242" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="L242"/>
       <c r="M242"/>
@@ -14865,7 +14853,7 @@
         <v>559</v>
       </c>
       <c r="F243" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G243" t="s">
         <v>3</v>
@@ -14912,7 +14900,7 @@
         <v>560</v>
       </c>
       <c r="F244" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G244" t="s">
         <v>3</v>
@@ -14959,7 +14947,7 @@
         <v>561</v>
       </c>
       <c r="F245" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G245" t="s">
         <v>3</v>
@@ -15006,7 +14994,7 @@
         <v>562</v>
       </c>
       <c r="F246" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G246" t="s">
         <v>625</v>
@@ -15047,7 +15035,7 @@
         <v>563</v>
       </c>
       <c r="F247" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G247" t="s">
         <v>3</v>
@@ -15088,7 +15076,7 @@
         <v>564</v>
       </c>
       <c r="F248" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G248" t="s">
         <v>3</v>
@@ -15129,7 +15117,7 @@
         <v>565</v>
       </c>
       <c r="F249" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G249" t="s">
         <v>3</v>
@@ -15498,10 +15486,10 @@
         <v>566</v>
       </c>
       <c r="F258" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G258" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H258" t="s">
         <v>3</v>
@@ -15543,10 +15531,10 @@
         <v>567</v>
       </c>
       <c r="F259" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G259" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H259" t="s">
         <v>3</v>
@@ -15588,10 +15576,10 @@
         <v>568</v>
       </c>
       <c r="F260" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G260" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H260" t="s">
         <v>3</v>
@@ -15633,10 +15621,10 @@
         <v>544</v>
       </c>
       <c r="F261" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G261" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H261" t="s">
         <v>3</v>
@@ -15718,7 +15706,7 @@
         <v>423</v>
       </c>
       <c r="E263" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F263" t="s">
         <v>3</v>
@@ -15730,7 +15718,7 @@
         <v>3</v>
       </c>
       <c r="I263" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J263"/>
       <c r="K263"/>
@@ -16473,7 +16461,7 @@
         <v>569</v>
       </c>
       <c r="F275" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G275" t="s">
         <v>3</v>
@@ -16866,7 +16854,7 @@
         <v>570</v>
       </c>
       <c r="F282" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G282" t="s">
         <v>3</v>
@@ -16913,7 +16901,7 @@
         <v>571</v>
       </c>
       <c r="F283" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G283" t="s">
         <v>3</v>
@@ -16960,7 +16948,7 @@
         <v>572</v>
       </c>
       <c r="F284" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G284" t="s">
         <v>3</v>
@@ -17007,7 +16995,7 @@
         <v>563</v>
       </c>
       <c r="F285" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G285" t="s">
         <v>3</v>
@@ -17054,7 +17042,7 @@
         <v>573</v>
       </c>
       <c r="F286" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G286" t="s">
         <v>3</v>
@@ -17095,7 +17083,7 @@
         <v>574</v>
       </c>
       <c r="F287" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G287" t="s">
         <v>3</v>
@@ -17136,7 +17124,7 @@
         <v>575</v>
       </c>
       <c r="F288" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G288" t="s">
         <v>3</v>
@@ -17177,7 +17165,7 @@
         <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G289" t="s">
         <v>3</v>
@@ -17588,7 +17576,7 @@
         <v>422</v>
       </c>
       <c r="E299" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="F299" t="s">
         <v>616</v>
@@ -17633,13 +17621,13 @@
         <v>422</v>
       </c>
       <c r="E300" t="s">
-        <v>467</v>
+        <v>576</v>
       </c>
       <c r="F300" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G300" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H300" t="s">
         <v>3</v>
@@ -17678,10 +17666,10 @@
         <v>422</v>
       </c>
       <c r="E301" t="s">
-        <v>520</v>
+        <v>465</v>
       </c>
       <c r="F301" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G301" t="s">
         <v>3</v>
@@ -17723,13 +17711,13 @@
         <v>423</v>
       </c>
       <c r="E302" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F302" t="s">
         <v>3</v>
       </c>
       <c r="G302" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H302" t="s">
         <v>3</v>
@@ -17766,13 +17754,13 @@
         <v>423</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
         <v>3</v>
       </c>
       <c r="G303" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H303" t="s">
         <v>3</v>
@@ -17809,7 +17797,7 @@
         <v>423</v>
       </c>
       <c r="E304" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F304" t="s">
         <v>625</v>
@@ -17852,13 +17840,13 @@
         <v>423</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
         <v>3</v>
       </c>
       <c r="G305" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H305" t="s">
         <v>3</v>
@@ -17895,7 +17883,7 @@
         <v>425</v>
       </c>
       <c r="E306" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
         <v>3</v>
@@ -17937,13 +17925,13 @@
         <v>3</v>
       </c>
       <c r="S306" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="T306" t="s">
         <v>616</v>
       </c>
       <c r="U306" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="V306"/>
       <c r="W306"/>
@@ -17962,7 +17950,7 @@
         <v>425</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F307" t="s">
         <v>3</v>
@@ -18004,13 +17992,13 @@
         <v>3</v>
       </c>
       <c r="S307" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="T307" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="U307" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="V307"/>
       <c r="W307"/>
@@ -18029,7 +18017,7 @@
         <v>425</v>
       </c>
       <c r="E308" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
         <v>3</v>
@@ -18071,13 +18059,13 @@
         <v>3</v>
       </c>
       <c r="S308" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="T308" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="U308" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="V308"/>
       <c r="W308"/>
@@ -18096,7 +18084,7 @@
         <v>425</v>
       </c>
       <c r="E309" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F309" t="s">
         <v>3</v>
@@ -18141,10 +18129,10 @@
         <v>3</v>
       </c>
       <c r="T309" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="U309" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="V309"/>
       <c r="W309"/>
@@ -18217,7 +18205,7 @@
         <v>3</v>
       </c>
       <c r="W310" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="311">
@@ -18424,7 +18412,7 @@
         <v>3</v>
       </c>
       <c r="U313" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="V313" t="s">
         <v>3</v>
@@ -18911,7 +18899,7 @@
         <v>418</v>
       </c>
       <c r="E322" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F322"/>
       <c r="G322"/>
@@ -18949,7 +18937,7 @@
         <v>539</v>
       </c>
       <c r="F323" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G323" t="s">
         <v>3</v>
@@ -18996,7 +18984,7 @@
         <v>519</v>
       </c>
       <c r="F324" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G324" t="s">
         <v>3</v>
@@ -19163,10 +19151,10 @@
         <v>420</v>
       </c>
       <c r="E328" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F328" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G328" t="s">
         <v>3</v>
@@ -19368,10 +19356,10 @@
         <v>421</v>
       </c>
       <c r="E333" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F333" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G333" t="s">
         <v>3</v>
@@ -19544,13 +19532,13 @@
         <v>423</v>
       </c>
       <c r="E337" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F337" t="s">
         <v>3</v>
       </c>
       <c r="G337" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H337" t="s">
         <v>3</v>
@@ -19587,13 +19575,13 @@
         <v>423</v>
       </c>
       <c r="E338" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F338" t="s">
         <v>625</v>
       </c>
       <c r="G338" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H338" t="s">
         <v>3</v>
@@ -19630,13 +19618,13 @@
         <v>423</v>
       </c>
       <c r="E339" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F339" t="s">
         <v>616</v>
       </c>
       <c r="G339" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H339" t="s">
         <v>3</v>
@@ -19673,10 +19661,10 @@
         <v>425</v>
       </c>
       <c r="E340" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F340" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G340" t="s">
         <v>3</v>
@@ -19874,7 +19862,7 @@
         <v>426</v>
       </c>
       <c r="E343" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F343" t="s">
         <v>3</v>
@@ -19925,10 +19913,10 @@
         <v>3</v>
       </c>
       <c r="V343" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="W343" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="344">
@@ -19945,7 +19933,7 @@
         <v>426</v>
       </c>
       <c r="E344" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F344" t="s">
         <v>3</v>
@@ -19996,10 +19984,10 @@
         <v>3</v>
       </c>
       <c r="V344" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="W344" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="345">
@@ -20016,61 +20004,61 @@
         <v>426</v>
       </c>
       <c r="E345" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F345" t="s">
+        <v>722</v>
+      </c>
+      <c r="G345" t="s">
+        <v>3</v>
+      </c>
+      <c r="H345" t="s">
+        <v>3</v>
+      </c>
+      <c r="I345" t="s">
+        <v>3</v>
+      </c>
+      <c r="J345" t="s">
+        <v>3</v>
+      </c>
+      <c r="K345" t="s">
+        <v>3</v>
+      </c>
+      <c r="L345" t="s">
+        <v>3</v>
+      </c>
+      <c r="M345" t="s">
+        <v>3</v>
+      </c>
+      <c r="N345" t="s">
+        <v>3</v>
+      </c>
+      <c r="O345" t="s">
+        <v>3</v>
+      </c>
+      <c r="P345" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>3</v>
+      </c>
+      <c r="R345" t="s">
+        <v>3</v>
+      </c>
+      <c r="S345" t="s">
+        <v>3</v>
+      </c>
+      <c r="T345" t="s">
+        <v>3</v>
+      </c>
+      <c r="U345" t="s">
         <v>724</v>
       </c>
-      <c r="G345" t="s">
-        <v>3</v>
-      </c>
-      <c r="H345" t="s">
-        <v>3</v>
-      </c>
-      <c r="I345" t="s">
-        <v>3</v>
-      </c>
-      <c r="J345" t="s">
-        <v>3</v>
-      </c>
-      <c r="K345" t="s">
-        <v>3</v>
-      </c>
-      <c r="L345" t="s">
-        <v>3</v>
-      </c>
-      <c r="M345" t="s">
-        <v>3</v>
-      </c>
-      <c r="N345" t="s">
-        <v>3</v>
-      </c>
-      <c r="O345" t="s">
-        <v>3</v>
-      </c>
-      <c r="P345" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q345" t="s">
-        <v>3</v>
-      </c>
-      <c r="R345" t="s">
-        <v>3</v>
-      </c>
-      <c r="S345" t="s">
-        <v>3</v>
-      </c>
-      <c r="T345" t="s">
-        <v>3</v>
-      </c>
-      <c r="U345" t="s">
-        <v>726</v>
-      </c>
       <c r="V345" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="W345" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="346">
@@ -20087,7 +20075,7 @@
         <v>427</v>
       </c>
       <c r="E346" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
       <c r="F346" t="s">
         <v>3</v>
@@ -20099,7 +20087,7 @@
         <v>3</v>
       </c>
       <c r="I346" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J346" t="s">
         <v>3</v>
@@ -20170,7 +20158,7 @@
         <v>3</v>
       </c>
       <c r="I347" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J347" t="s">
         <v>3</v>
@@ -20235,13 +20223,13 @@
         <v>3</v>
       </c>
       <c r="G348" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H348" t="s">
         <v>3</v>
       </c>
       <c r="I348" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="J348" t="s">
         <v>3</v>
@@ -20438,7 +20426,7 @@
         <v>595</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G352" t="s">
         <v>3</v>
@@ -20485,7 +20473,7 @@
         <v>519</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G353" t="s">
         <v>3</v>
@@ -20532,7 +20520,7 @@
         <v>573</v>
       </c>
       <c r="F354" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G354" t="s">
         <v>3</v>
@@ -20579,7 +20567,7 @@
         <v>510</v>
       </c>
       <c r="F355" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G355" t="s">
         <v>3</v>
@@ -20661,7 +20649,7 @@
         <v>538</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G357" t="s">
         <v>3</v>
@@ -20743,7 +20731,7 @@
         <v>596</v>
       </c>
       <c r="F359" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G359" t="s">
         <v>3</v>
@@ -20907,7 +20895,7 @@
         <v>540</v>
       </c>
       <c r="F363" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G363" t="s">
         <v>3</v>
@@ -20951,7 +20939,7 @@
         <v>3</v>
       </c>
       <c r="G364" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H364" t="s">
         <v>3</v>
@@ -21086,7 +21074,7 @@
         <v>615</v>
       </c>
       <c r="G367" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>
@@ -21129,7 +21117,7 @@
         <v>3</v>
       </c>
       <c r="G368" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H368" t="s">
         <v>3</v>
@@ -21172,7 +21160,7 @@
         <v>625</v>
       </c>
       <c r="G369" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H369" t="s">
         <v>3</v>
@@ -21346,7 +21334,7 @@
         <v>542</v>
       </c>
       <c r="F372" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G372" t="s">
         <v>3</v>
@@ -21671,13 +21659,13 @@
         <v>3</v>
       </c>
       <c r="U376" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="V376" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="W376" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="377">
@@ -21742,13 +21730,13 @@
         <v>3</v>
       </c>
       <c r="U377" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="V377" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="W377" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="378">
@@ -21813,13 +21801,13 @@
         <v>3</v>
       </c>
       <c r="U378" t="s">
+        <v>724</v>
+      </c>
+      <c r="V378" t="s">
         <v>726</v>
       </c>
-      <c r="V378" t="s">
-        <v>728</v>
-      </c>
       <c r="W378" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="379">
@@ -22115,7 +22103,7 @@
         <v>603</v>
       </c>
       <c r="F385" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G385" t="s">
         <v>3</v>
@@ -22156,7 +22144,7 @@
         <v>603</v>
       </c>
       <c r="F386" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G386" t="s">
         <v>3</v>
@@ -22197,7 +22185,7 @@
         <v>519</v>
       </c>
       <c r="F387" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G387" t="s">
         <v>3</v>
@@ -23369,7 +23357,7 @@
         <v>3</v>
       </c>
       <c r="J409" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="K409"/>
       <c r="L409"/>
@@ -23414,7 +23402,7 @@
         <v>3</v>
       </c>
       <c r="J410" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="K410"/>
       <c r="L410"/>
@@ -23459,7 +23447,7 @@
         <v>3</v>
       </c>
       <c r="J411" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="K411"/>
       <c r="L411"/>
